--- a/src/data/LindaBorrow.xlsx
+++ b/src/data/LindaBorrow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwsm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwsm/Desktop/reactProject/my-documents/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5DD792-C7B1-1849-A044-13DB8D92A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C3530-F3B2-FD41-B109-C9E60406FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3560" windowWidth="28240" windowHeight="16940" activeTab="2" xr2:uid="{5C81C478-0D3D-4A4F-A56B-4FCB4ED30794}"/>
+    <workbookView xWindow="560" yWindow="1060" windowWidth="28240" windowHeight="16940" activeTab="1" xr2:uid="{5C81C478-0D3D-4A4F-A56B-4FCB4ED30794}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.4.19约定南京银行款项延续还款项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="OLE_LINK27" localSheetId="2">'厦门银行兴安贷剩余款项--后期应还'!$B$11</definedName>
     <definedName name="OLE_LINK29" localSheetId="2">'厦门银行兴安贷剩余款项--后期应还'!$B$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -50,21 +50,6 @@
   </si>
   <si>
     <t>已还金额</t>
-  </si>
-  <si>
-    <r>
-      <t>2022.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.20</t>
-    </r>
   </si>
   <si>
     <r>
@@ -172,6 +157,149 @@
     </r>
   </si>
   <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月利息：6693.29 * 0.5% = 33.466
+                6306.47 * 0.5% = 31.532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代还款日期</t>
+  </si>
+  <si>
+    <t>还款归属日期</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>未归还</t>
+  </si>
+  <si>
+    <t>2022.4.18</t>
+  </si>
+  <si>
+    <t>2022.5.18</t>
+  </si>
+  <si>
+    <t>单月利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.3.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含南京银行最后一期利息386.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还款日期</t>
+  </si>
+  <si>
+    <t>2022.6.18</t>
+  </si>
+  <si>
+    <t>未到期</t>
+  </si>
+  <si>
+    <t>2022.7.18</t>
+  </si>
+  <si>
+    <t>2022.8.18</t>
+  </si>
+  <si>
+    <t>2022.9.18</t>
+  </si>
+  <si>
+    <t>2022.10.18</t>
+  </si>
+  <si>
+    <t>2022.11.18</t>
+  </si>
+  <si>
+    <t>2022.12.18</t>
+  </si>
+  <si>
+    <t>2023.1.18</t>
+  </si>
+  <si>
+    <t>2023.2.18</t>
+  </si>
+  <si>
+    <t>2023.3.18</t>
+  </si>
+  <si>
+    <t>2023.4.18</t>
+  </si>
+  <si>
+    <t>2023.5.18</t>
+  </si>
+  <si>
+    <t>2023.6.18</t>
+  </si>
+  <si>
+    <t>2023.7.18</t>
+  </si>
+  <si>
+    <t>2023.8.18</t>
+  </si>
+  <si>
+    <t>2023.9.18</t>
+  </si>
+  <si>
+    <t>2023.10.18</t>
+  </si>
+  <si>
+    <t>2023.11.18</t>
+  </si>
+  <si>
+    <t>2023.12.18</t>
+  </si>
+  <si>
+    <t>2024.1.18</t>
+  </si>
+  <si>
+    <t>2024.2.18</t>
+  </si>
+  <si>
+    <t>2024.3.18</t>
+  </si>
+  <si>
+    <t>2024.4.18</t>
+  </si>
+  <si>
+    <r>
+      <t>2022.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.20</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>本金总额：82000
 之前剩余利息：</t>
@@ -184,7 +312,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>386.82</t>
+      <t>386.82（在贷还款表中记录）</t>
     </r>
     <r>
       <rPr>
@@ -210,140 +338,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月利息：6693.29 * 0.5% = 33.466
-                6306.47 * 0.5% = 31.532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代还款日期</t>
-  </si>
-  <si>
-    <t>还款归属日期</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>未归还</t>
-  </si>
-  <si>
-    <t>2022.4.18</t>
-  </si>
-  <si>
-    <t>2022.5.18</t>
-  </si>
-  <si>
-    <t>单月利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.3.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含南京银行最后一期利息386.82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应还款日期</t>
-  </si>
-  <si>
-    <t>2022.6.18</t>
-  </si>
-  <si>
-    <t>未到期</t>
-  </si>
-  <si>
-    <t>2022.7.18</t>
-  </si>
-  <si>
-    <t>2022.8.18</t>
-  </si>
-  <si>
-    <t>2022.9.18</t>
-  </si>
-  <si>
-    <t>2022.10.18</t>
-  </si>
-  <si>
-    <t>2022.11.18</t>
-  </si>
-  <si>
-    <t>2022.12.18</t>
-  </si>
-  <si>
-    <t>2023.1.18</t>
-  </si>
-  <si>
-    <t>2023.2.18</t>
-  </si>
-  <si>
-    <t>2023.3.18</t>
-  </si>
-  <si>
-    <t>2023.4.18</t>
-  </si>
-  <si>
-    <t>2023.5.18</t>
-  </si>
-  <si>
-    <t>2023.6.18</t>
-  </si>
-  <si>
-    <t>2023.7.18</t>
-  </si>
-  <si>
-    <t>2023.8.18</t>
-  </si>
-  <si>
-    <t>2023.9.18</t>
-  </si>
-  <si>
-    <t>2023.10.18</t>
-  </si>
-  <si>
-    <t>2023.11.18</t>
-  </si>
-  <si>
-    <t>2023.12.18</t>
-  </si>
-  <si>
-    <t>2024.1.18</t>
-  </si>
-  <si>
-    <t>2024.2.18</t>
-  </si>
-  <si>
-    <t>2024.3.18</t>
-  </si>
-  <si>
-    <t>2024.4.18</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +442,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,65 +539,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C1B35-2329-1A4A-99B0-D759620337D3}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -918,192 +928,195 @@
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="84" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="19">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10250</v>
+      </c>
+      <c r="D4" s="17">
+        <v>410</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10660</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="7">
         <v>10250</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="7">
         <v>410</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="7">
         <v>10660</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:9" ht="19">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="7">
         <v>10250</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="7">
         <v>410</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="7">
         <v>10660</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:9" ht="19">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="7">
         <v>10250</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="7">
         <v>410</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="7">
         <v>10660</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:9" ht="19">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="7">
         <v>10250</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="7">
         <v>410</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="7">
         <v>10660</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:9" ht="19">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="7">
         <v>10250</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="7">
         <v>410</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="7">
         <v>10660</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19">
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:9" ht="19">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="7">
         <v>10250</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="7">
         <v>410</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="7">
         <v>10660</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:9" ht="19">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="7">
         <v>10250</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="7">
         <v>410</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="7">
         <v>10660</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:9" ht="21">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
-        <v>10250</v>
-      </c>
-      <c r="D11" s="9">
-        <v>410</v>
-      </c>
-      <c r="E11" s="9">
-        <v>10660</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
         <f>SUM(C4:C11)</f>
         <v>82000</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f t="shared" ref="D12:F12" si="0">SUM(D4:D11)</f>
         <v>3280</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>85280</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1121,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9EEC8-7194-F94A-9746-FA14B037E57F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1135,169 +1148,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="29" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="36">
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="36">
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="56" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="D5" s="13">
+        <v>6693.29</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="56" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3.18</v>
-      </c>
-      <c r="D5" s="16">
-        <v>6693.29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <f>D5 * 0.005</f>
         <v>33.466450000000002</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13">
+        <f>F5 * G5</f>
+        <v>100.39935</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="47" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6693.29</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F7" si="0">D6 * 0.005</f>
+        <v>33.466450000000002</v>
+      </c>
+      <c r="G6" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="16">
-        <f>F5 * G5</f>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:H7" si="1">F6 * G6</f>
         <v>66.932900000000004</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4.18</v>
-      </c>
-      <c r="D6" s="16">
-        <v>6306.47</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="I6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F7" si="0">D6 * 0.005</f>
-        <v>31.532350000000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6:H7" si="1">F6 * G6</f>
-        <v>31.532350000000001</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="31" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>5.18</v>
       </c>
-      <c r="D7" s="16">
-        <v>6306.47</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="13">
+        <v>6306.47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>31.532350000000001</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>31.532350000000001</v>
+      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="31" customHeight="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="23">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="16">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13">
         <f>SUM(D5:D8)</f>
-        <v>19306.23</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+        <v>19693.05</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <f>SUM(F5:F7)</f>
-        <v>96.531149999999997</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+        <v>98.465249999999997</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <f>SUM(H5:H7)</f>
-        <v>98.465249999999997</v>
-      </c>
-      <c r="I9" s="16">
+        <v>198.8646</v>
+      </c>
+      <c r="I9" s="13">
         <f>D9+F9+H9</f>
-        <v>19501.2264</v>
+        <v>19990.379850000001</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79AC0B-4D3A-734F-97FF-D6E36D1E8F12}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1323,268 +1338,268 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1"/>
-    <row r="3" spans="2:4" ht="37" thickBot="1">
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="37" thickBot="1">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="2:4" ht="19" thickBot="1">
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19" thickBot="1">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19" thickBot="1">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C5" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="19" thickBot="1">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="37" thickBot="1">
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19" thickBot="1">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="37" thickBot="1">
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37" thickBot="1">
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="19" thickBot="1">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="37" thickBot="1">
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" thickBot="1">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="37" thickBot="1">
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19" thickBot="1">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="37" thickBot="1">
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19" thickBot="1">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="37" thickBot="1">
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19" thickBot="1">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="37" thickBot="1">
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19" thickBot="1">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="37" thickBot="1">
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="19" thickBot="1">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="37" thickBot="1">
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="19" thickBot="1">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="37" thickBot="1">
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19" thickBot="1">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="37" thickBot="1">
-      <c r="B16" s="4" t="s">
+      <c r="C17" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19" thickBot="1">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="37" thickBot="1">
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="19" thickBot="1">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="37" thickBot="1">
-      <c r="B18" s="4" t="s">
+      <c r="C19" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19" thickBot="1">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="37" thickBot="1">
-      <c r="B19" s="4" t="s">
+      <c r="C20" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19" thickBot="1">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="37" thickBot="1">
-      <c r="B20" s="4" t="s">
+      <c r="C21" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="19" thickBot="1">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="37" thickBot="1">
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19" thickBot="1">
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="37" thickBot="1">
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="19" thickBot="1">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="37" thickBot="1">
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="19" thickBot="1">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="37" thickBot="1">
-      <c r="B24" s="4" t="s">
+      <c r="C25" s="10">
+        <v>6306.47</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="19" thickBot="1">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="37" thickBot="1">
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="13">
-        <v>6306.47</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="37" thickBot="1">
-      <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>6306.33</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>31</v>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
